--- a/survey/NW Flordia (Working).xlsx
+++ b/survey/NW Flordia (Working).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D3B0A-C000-4BCE-B3E2-F72286E72019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69C3478-6F54-4EFC-B3A1-34D7892C9826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1771">
   <si>
     <t>Question type</t>
   </si>
@@ -5469,6 +5469,9 @@
   </si>
   <si>
     <t>selected(${LocationGlobalID_stage}, LocationGlobalID)</t>
+  </si>
+  <si>
+    <t>Elevation1</t>
   </si>
 </sst>
 </file>
@@ -5954,6 +5957,71 @@
   </cellStyles>
   <dxfs count="44">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -5968,6 +6036,82 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5991,6 +6135,111 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -6008,6 +6257,31 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6240,277 +6514,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF00B050"/>
@@ -6547,7 +6550,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ113" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ113" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
@@ -6591,12 +6594,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6605,8 +6608,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA6E830A-C9F4-4210-85CE-9BA069E10E09}" name="tblEsriFieldTypes" displayName="tblEsriFieldTypes" ref="A1:C10" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F05F349-1A9F-403B-A3B4-24E1E9732F01}" name="Esri field types" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{E21F91EE-DEEC-4C26-8B49-009A0DA88A78}" name="Use the bind::esri:fieldType column to control the field type created in the feature layer." dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{3F05F349-1A9F-403B-A3B4-24E1E9732F01}" name="Esri field types" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E21F91EE-DEEC-4C26-8B49-009A0DA88A78}" name="Use the bind::esri:fieldType column to control the field type created in the feature layer." dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{474B3189-9717-47F1-85D2-1115BEA7D318}" name="Learn more"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6616,8 +6619,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE25B448-32A0-47C3-B8CA-A3217C56D721}" name="tblBindTypes" displayName="tblBindTypes" ref="A16:C22" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8ABABCDA-565D-4DA1-AF46-EA67EE5579DE}" name="Bind types" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{DD933ECF-7EB5-4195-AA7A-8DF55FDF81CA}" name="Use in the bind::type column to overwrite default field type during a survey." dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{8ABABCDA-565D-4DA1-AF46-EA67EE5579DE}" name="Bind types" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DD933ECF-7EB5-4195-AA7A-8DF55FDF81CA}" name="Use in the bind::type column to overwrite default field type during a survey." dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9672D06C-FA8E-4A81-8985-F209E2F23F4E}" name="Learn more"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6625,12 +6628,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1037">
     <sortCondition ref="A2:A1037"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6940,7 +6943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O43" sqref="O43"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7790,7 +7793,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>1732</v>
+        <v>1770</v>
       </c>
       <c r="C45" s="63" t="s">
         <v>1732</v>
@@ -8652,73 +8655,73 @@
   <dataConsolidate/>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B9">
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="22" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73 B75:B83 B88:B113 B17:B20 B35 B24:B29">
-    <cfRule type="duplicateValues" dxfId="16" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B34">
-    <cfRule type="duplicateValues" dxfId="15" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B59">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51 B37:B47 B53:B55">
-    <cfRule type="duplicateValues" dxfId="6" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B72:B73 B88:B114 B75:B83 B2:B35 B58:B60 C3:C4 B37:B56" xr:uid="{AE52CDED-D21E-4469-BBC3-752225966B97}">
@@ -10187,10 +10190,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11400,10 +11403,10 @@
     <sortCondition ref="B44:B113"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12717,10 +12720,10 @@
     <mergeCell ref="D35:D37"/>
   </mergeCells>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B44">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{2C6D092A-0B0E-44BD-82D7-86DCBBE72CBA}"/>
